--- a/2022/Symphony/APRIL/11.04.2022/MC Bank Statement April-2022.xlsx
+++ b/2022/Symphony/APRIL/11.04.2022/MC Bank Statement April-2022.xlsx
@@ -3030,6 +3030,12 @@
     <xf numFmtId="1" fontId="34" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="43" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3176,12 +3182,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="43" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3871,33 +3871,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="307"/>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
+      <c r="A1" s="309"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="308"/>
-      <c r="B2" s="305" t="s">
+      <c r="A2" s="310"/>
+      <c r="B2" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="308"/>
-      <c r="B3" s="306" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="308" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="308"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="308"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="308"/>
+      <c r="A6" s="310"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3945,7 +3945,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="308"/>
+      <c r="A7" s="310"/>
       <c r="B7" s="26" t="s">
         <v>56</v>
       </c>
@@ -3964,7 +3964,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="308"/>
+      <c r="A8" s="310"/>
       <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="308"/>
+      <c r="A9" s="310"/>
       <c r="B9" s="26" t="s">
         <v>59</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="308"/>
+      <c r="A10" s="310"/>
       <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="308"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="26" t="s">
         <v>61</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="308"/>
+      <c r="A12" s="310"/>
       <c r="B12" s="26" t="s">
         <v>62</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="308"/>
+      <c r="A13" s="310"/>
       <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="308"/>
+      <c r="A14" s="310"/>
       <c r="B14" s="26" t="s">
         <v>64</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="308"/>
+      <c r="A15" s="310"/>
       <c r="B15" s="26" t="s">
         <v>65</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="308"/>
+      <c r="A16" s="310"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4129,7 +4129,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="308"/>
+      <c r="A17" s="310"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4142,7 +4142,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="308"/>
+      <c r="A18" s="310"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4155,7 +4155,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="308"/>
+      <c r="A19" s="310"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4168,7 +4168,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="308"/>
+      <c r="A20" s="310"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4181,7 +4181,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="308"/>
+      <c r="A21" s="310"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4194,7 +4194,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="308"/>
+      <c r="A22" s="310"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4207,7 +4207,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="308"/>
+      <c r="A23" s="310"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4220,7 +4220,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="308"/>
+      <c r="A24" s="310"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4233,7 +4233,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="308"/>
+      <c r="A25" s="310"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4246,7 +4246,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="308"/>
+      <c r="A26" s="310"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4259,7 +4259,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="308"/>
+      <c r="A27" s="310"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4272,7 +4272,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="308"/>
+      <c r="A28" s="310"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4285,7 +4285,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="308"/>
+      <c r="A29" s="310"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4298,7 +4298,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="308"/>
+      <c r="A30" s="310"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4311,7 +4311,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="308"/>
+      <c r="A31" s="310"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4324,7 +4324,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="308"/>
+      <c r="A32" s="310"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4337,7 +4337,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="308"/>
+      <c r="A33" s="310"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4350,7 +4350,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="308"/>
+      <c r="A34" s="310"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4363,7 +4363,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="308"/>
+      <c r="A35" s="310"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4376,7 +4376,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="308"/>
+      <c r="A36" s="310"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4389,7 +4389,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="308"/>
+      <c r="A37" s="310"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4402,7 +4402,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="308"/>
+      <c r="A38" s="310"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4415,7 +4415,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="308"/>
+      <c r="A39" s="310"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4428,7 +4428,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="308"/>
+      <c r="A40" s="310"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4441,7 +4441,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="308"/>
+      <c r="A41" s="310"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4454,7 +4454,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="308"/>
+      <c r="A42" s="310"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4467,7 +4467,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="308"/>
+      <c r="A43" s="310"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4480,7 +4480,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="308"/>
+      <c r="A44" s="310"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4493,7 +4493,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="308"/>
+      <c r="A45" s="310"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4506,7 +4506,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="308"/>
+      <c r="A46" s="310"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4519,7 +4519,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="308"/>
+      <c r="A47" s="310"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4532,7 +4532,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="308"/>
+      <c r="A48" s="310"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4545,7 +4545,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="308"/>
+      <c r="A49" s="310"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4558,7 +4558,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="308"/>
+      <c r="A50" s="310"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4571,7 +4571,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="308"/>
+      <c r="A51" s="310"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4584,7 +4584,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="308"/>
+      <c r="A52" s="310"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4597,7 +4597,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="308"/>
+      <c r="A53" s="310"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4610,7 +4610,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="308"/>
+      <c r="A54" s="310"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4623,7 +4623,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="308"/>
+      <c r="A55" s="310"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4635,7 +4635,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="308"/>
+      <c r="A56" s="310"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4647,7 +4647,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="308"/>
+      <c r="A57" s="310"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4659,7 +4659,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="308"/>
+      <c r="A58" s="310"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4671,7 +4671,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="308"/>
+      <c r="A59" s="310"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4683,7 +4683,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="308"/>
+      <c r="A60" s="310"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4695,7 +4695,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="308"/>
+      <c r="A61" s="310"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4707,7 +4707,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="308"/>
+      <c r="A62" s="310"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4719,7 +4719,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="308"/>
+      <c r="A63" s="310"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4731,7 +4731,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="308"/>
+      <c r="A64" s="310"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4743,7 +4743,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="308"/>
+      <c r="A65" s="310"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4755,7 +4755,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="308"/>
+      <c r="A66" s="310"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4767,7 +4767,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="308"/>
+      <c r="A67" s="310"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4779,7 +4779,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="308"/>
+      <c r="A68" s="310"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4791,7 +4791,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="308"/>
+      <c r="A69" s="310"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4803,7 +4803,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="308"/>
+      <c r="A70" s="310"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4815,7 +4815,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="308"/>
+      <c r="A71" s="310"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4827,7 +4827,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="308"/>
+      <c r="A72" s="310"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4839,7 +4839,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="308"/>
+      <c r="A73" s="310"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4851,7 +4851,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="308"/>
+      <c r="A74" s="310"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4863,7 +4863,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="308"/>
+      <c r="A75" s="310"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4875,7 +4875,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="308"/>
+      <c r="A76" s="310"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4887,7 +4887,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="308"/>
+      <c r="A77" s="310"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4899,7 +4899,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="308"/>
+      <c r="A78" s="310"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4911,7 +4911,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="308"/>
+      <c r="A79" s="310"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4923,7 +4923,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="308"/>
+      <c r="A80" s="310"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4935,7 +4935,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="308"/>
+      <c r="A81" s="310"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4947,7 +4947,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="308"/>
+      <c r="A82" s="310"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4959,7 +4959,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="308"/>
+      <c r="A83" s="310"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5016,33 +5016,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="307"/>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
+      <c r="A1" s="309"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="308"/>
-      <c r="B2" s="305" t="s">
+      <c r="A2" s="310"/>
+      <c r="B2" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="308"/>
-      <c r="B3" s="306" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="308"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="308"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="308"/>
+      <c r="A6" s="310"/>
       <c r="B6" s="26"/>
       <c r="C6" s="263"/>
       <c r="D6" s="263"/>
@@ -5090,7 +5090,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="308"/>
+      <c r="A7" s="310"/>
       <c r="B7" s="26" t="s">
         <v>203</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="308"/>
+      <c r="A8" s="310"/>
       <c r="B8" s="26" t="s">
         <v>211</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="308"/>
+      <c r="A9" s="310"/>
       <c r="B9" s="26" t="s">
         <v>218</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="308"/>
+      <c r="A10" s="310"/>
       <c r="B10" s="26" t="s">
         <v>219</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="308"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="26" t="s">
         <v>223</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="308"/>
+      <c r="A12" s="310"/>
       <c r="B12" s="26" t="s">
         <v>224</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="308"/>
+      <c r="A13" s="310"/>
       <c r="B13" s="26" t="s">
         <v>228</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="308"/>
+      <c r="A14" s="310"/>
       <c r="B14" s="26" t="s">
         <v>229</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="308"/>
+      <c r="A15" s="310"/>
       <c r="B15" s="26" t="s">
         <v>231</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="308"/>
+      <c r="A16" s="310"/>
       <c r="B16" s="26"/>
       <c r="C16" s="263"/>
       <c r="D16" s="263"/>
@@ -5264,7 +5264,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="308"/>
+      <c r="A17" s="310"/>
       <c r="B17" s="26"/>
       <c r="C17" s="263"/>
       <c r="D17" s="263"/>
@@ -5276,7 +5276,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="308"/>
+      <c r="A18" s="310"/>
       <c r="B18" s="26"/>
       <c r="C18" s="263"/>
       <c r="D18" s="263"/>
@@ -5288,7 +5288,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="308"/>
+      <c r="A19" s="310"/>
       <c r="B19" s="26"/>
       <c r="C19" s="263"/>
       <c r="D19" s="265"/>
@@ -5300,7 +5300,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="308"/>
+      <c r="A20" s="310"/>
       <c r="B20" s="26"/>
       <c r="C20" s="263"/>
       <c r="D20" s="263"/>
@@ -5312,7 +5312,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="308"/>
+      <c r="A21" s="310"/>
       <c r="B21" s="26"/>
       <c r="C21" s="263"/>
       <c r="D21" s="263"/>
@@ -5324,7 +5324,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="308"/>
+      <c r="A22" s="310"/>
       <c r="B22" s="26"/>
       <c r="C22" s="263"/>
       <c r="D22" s="263"/>
@@ -5336,7 +5336,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="308"/>
+      <c r="A23" s="310"/>
       <c r="B23" s="26"/>
       <c r="C23" s="263"/>
       <c r="D23" s="263"/>
@@ -5348,7 +5348,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="308"/>
+      <c r="A24" s="310"/>
       <c r="B24" s="26"/>
       <c r="C24" s="263"/>
       <c r="D24" s="263"/>
@@ -5360,7 +5360,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="308"/>
+      <c r="A25" s="310"/>
       <c r="B25" s="26"/>
       <c r="C25" s="263"/>
       <c r="D25" s="263"/>
@@ -5372,7 +5372,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="308"/>
+      <c r="A26" s="310"/>
       <c r="B26" s="26"/>
       <c r="C26" s="263"/>
       <c r="D26" s="263"/>
@@ -5384,7 +5384,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="308"/>
+      <c r="A27" s="310"/>
       <c r="B27" s="26"/>
       <c r="C27" s="263"/>
       <c r="D27" s="263"/>
@@ -5396,7 +5396,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="308"/>
+      <c r="A28" s="310"/>
       <c r="B28" s="26"/>
       <c r="C28" s="263"/>
       <c r="D28" s="263"/>
@@ -5407,7 +5407,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="308"/>
+      <c r="A29" s="310"/>
       <c r="B29" s="26"/>
       <c r="C29" s="263"/>
       <c r="D29" s="263"/>
@@ -5419,7 +5419,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="308"/>
+      <c r="A30" s="310"/>
       <c r="B30" s="26"/>
       <c r="C30" s="263"/>
       <c r="D30" s="263"/>
@@ -5431,7 +5431,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="308"/>
+      <c r="A31" s="310"/>
       <c r="B31" s="26"/>
       <c r="C31" s="263"/>
       <c r="D31" s="263"/>
@@ -5443,7 +5443,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="308"/>
+      <c r="A32" s="310"/>
       <c r="B32" s="26"/>
       <c r="C32" s="263"/>
       <c r="D32" s="263"/>
@@ -5455,7 +5455,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="308"/>
+      <c r="A33" s="310"/>
       <c r="B33" s="26"/>
       <c r="C33" s="263"/>
       <c r="D33" s="265"/>
@@ -5467,7 +5467,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="308"/>
+      <c r="A34" s="310"/>
       <c r="B34" s="26"/>
       <c r="C34" s="263"/>
       <c r="D34" s="263"/>
@@ -5479,7 +5479,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="308"/>
+      <c r="A35" s="310"/>
       <c r="B35" s="26"/>
       <c r="C35" s="263"/>
       <c r="D35" s="263"/>
@@ -5491,7 +5491,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="308"/>
+      <c r="A36" s="310"/>
       <c r="B36" s="26"/>
       <c r="C36" s="263"/>
       <c r="D36" s="263"/>
@@ -5503,7 +5503,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="308"/>
+      <c r="A37" s="310"/>
       <c r="B37" s="26"/>
       <c r="C37" s="263"/>
       <c r="D37" s="263"/>
@@ -5515,7 +5515,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="308"/>
+      <c r="A38" s="310"/>
       <c r="B38" s="26"/>
       <c r="C38" s="263"/>
       <c r="D38" s="263"/>
@@ -5527,7 +5527,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="308"/>
+      <c r="A39" s="310"/>
       <c r="B39" s="26"/>
       <c r="C39" s="263"/>
       <c r="D39" s="263"/>
@@ -5539,7 +5539,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="308"/>
+      <c r="A40" s="310"/>
       <c r="B40" s="26"/>
       <c r="C40" s="263"/>
       <c r="D40" s="263"/>
@@ -5551,7 +5551,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="308"/>
+      <c r="A41" s="310"/>
       <c r="B41" s="26"/>
       <c r="C41" s="263"/>
       <c r="D41" s="263"/>
@@ -5563,7 +5563,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="308"/>
+      <c r="A42" s="310"/>
       <c r="B42" s="26"/>
       <c r="C42" s="263"/>
       <c r="D42" s="263"/>
@@ -5575,7 +5575,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="308"/>
+      <c r="A43" s="310"/>
       <c r="B43" s="26"/>
       <c r="C43" s="263"/>
       <c r="D43" s="263"/>
@@ -5587,7 +5587,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="308"/>
+      <c r="A44" s="310"/>
       <c r="B44" s="26"/>
       <c r="C44" s="263"/>
       <c r="D44" s="263"/>
@@ -5599,7 +5599,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="308"/>
+      <c r="A45" s="310"/>
       <c r="B45" s="26"/>
       <c r="C45" s="263"/>
       <c r="D45" s="263"/>
@@ -5611,7 +5611,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="308"/>
+      <c r="A46" s="310"/>
       <c r="B46" s="26"/>
       <c r="C46" s="263"/>
       <c r="D46" s="263"/>
@@ -5623,7 +5623,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="308"/>
+      <c r="A47" s="310"/>
       <c r="B47" s="26"/>
       <c r="C47" s="263"/>
       <c r="D47" s="263"/>
@@ -5635,7 +5635,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="308"/>
+      <c r="A48" s="310"/>
       <c r="B48" s="26"/>
       <c r="C48" s="263"/>
       <c r="D48" s="263"/>
@@ -5647,7 +5647,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="308"/>
+      <c r="A49" s="310"/>
       <c r="B49" s="26"/>
       <c r="C49" s="263"/>
       <c r="D49" s="263"/>
@@ -5659,7 +5659,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="308"/>
+      <c r="A50" s="310"/>
       <c r="B50" s="26"/>
       <c r="C50" s="263"/>
       <c r="D50" s="263"/>
@@ -5671,7 +5671,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="308"/>
+      <c r="A51" s="310"/>
       <c r="B51" s="26"/>
       <c r="C51" s="263"/>
       <c r="D51" s="263"/>
@@ -5683,7 +5683,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="308"/>
+      <c r="A52" s="310"/>
       <c r="B52" s="26"/>
       <c r="C52" s="263"/>
       <c r="D52" s="263"/>
@@ -5695,7 +5695,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="308"/>
+      <c r="A53" s="310"/>
       <c r="B53" s="26"/>
       <c r="C53" s="263"/>
       <c r="D53" s="263"/>
@@ -5707,7 +5707,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="308"/>
+      <c r="A54" s="310"/>
       <c r="B54" s="26"/>
       <c r="C54" s="263"/>
       <c r="D54" s="263"/>
@@ -5719,7 +5719,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="308"/>
+      <c r="A55" s="310"/>
       <c r="B55" s="26"/>
       <c r="C55" s="263"/>
       <c r="D55" s="263"/>
@@ -5730,7 +5730,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="308"/>
+      <c r="A56" s="310"/>
       <c r="B56" s="26"/>
       <c r="C56" s="263"/>
       <c r="D56" s="263"/>
@@ -5741,7 +5741,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="308"/>
+      <c r="A57" s="310"/>
       <c r="B57" s="26"/>
       <c r="C57" s="263"/>
       <c r="D57" s="263"/>
@@ -5752,7 +5752,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="308"/>
+      <c r="A58" s="310"/>
       <c r="B58" s="26"/>
       <c r="C58" s="263"/>
       <c r="D58" s="263"/>
@@ -5763,7 +5763,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="308"/>
+      <c r="A59" s="310"/>
       <c r="B59" s="26"/>
       <c r="C59" s="263"/>
       <c r="D59" s="263"/>
@@ -5774,7 +5774,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="308"/>
+      <c r="A60" s="310"/>
       <c r="B60" s="26"/>
       <c r="C60" s="263"/>
       <c r="D60" s="263"/>
@@ -5785,7 +5785,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="308"/>
+      <c r="A61" s="310"/>
       <c r="B61" s="26"/>
       <c r="C61" s="263"/>
       <c r="D61" s="263"/>
@@ -5796,7 +5796,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="308"/>
+      <c r="A62" s="310"/>
       <c r="B62" s="26"/>
       <c r="C62" s="263"/>
       <c r="D62" s="263"/>
@@ -5807,7 +5807,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="308"/>
+      <c r="A63" s="310"/>
       <c r="B63" s="26"/>
       <c r="C63" s="263"/>
       <c r="D63" s="263"/>
@@ -5818,7 +5818,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="308"/>
+      <c r="A64" s="310"/>
       <c r="B64" s="26"/>
       <c r="C64" s="263"/>
       <c r="D64" s="263"/>
@@ -5829,7 +5829,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="308"/>
+      <c r="A65" s="310"/>
       <c r="B65" s="26"/>
       <c r="C65" s="263"/>
       <c r="D65" s="263"/>
@@ -5840,7 +5840,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="308"/>
+      <c r="A66" s="310"/>
       <c r="B66" s="26"/>
       <c r="C66" s="263"/>
       <c r="D66" s="263"/>
@@ -5851,7 +5851,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="308"/>
+      <c r="A67" s="310"/>
       <c r="B67" s="26"/>
       <c r="C67" s="263"/>
       <c r="D67" s="263"/>
@@ -5862,7 +5862,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="308"/>
+      <c r="A68" s="310"/>
       <c r="B68" s="26"/>
       <c r="C68" s="263"/>
       <c r="D68" s="263"/>
@@ -5873,7 +5873,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="308"/>
+      <c r="A69" s="310"/>
       <c r="B69" s="26"/>
       <c r="C69" s="263"/>
       <c r="D69" s="263"/>
@@ -5884,7 +5884,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="308"/>
+      <c r="A70" s="310"/>
       <c r="B70" s="26"/>
       <c r="C70" s="263"/>
       <c r="D70" s="263"/>
@@ -5895,7 +5895,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="308"/>
+      <c r="A71" s="310"/>
       <c r="B71" s="26"/>
       <c r="C71" s="263"/>
       <c r="D71" s="263"/>
@@ -5906,7 +5906,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="308"/>
+      <c r="A72" s="310"/>
       <c r="B72" s="26"/>
       <c r="C72" s="263"/>
       <c r="D72" s="263"/>
@@ -5917,7 +5917,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="308"/>
+      <c r="A73" s="310"/>
       <c r="B73" s="26"/>
       <c r="C73" s="263"/>
       <c r="D73" s="263"/>
@@ -5928,7 +5928,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="308"/>
+      <c r="A74" s="310"/>
       <c r="B74" s="26"/>
       <c r="C74" s="263"/>
       <c r="D74" s="263"/>
@@ -5939,7 +5939,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="308"/>
+      <c r="A75" s="310"/>
       <c r="B75" s="26"/>
       <c r="C75" s="263"/>
       <c r="D75" s="263"/>
@@ -5950,7 +5950,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="308"/>
+      <c r="A76" s="310"/>
       <c r="B76" s="26"/>
       <c r="C76" s="263"/>
       <c r="D76" s="263"/>
@@ -5961,7 +5961,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="308"/>
+      <c r="A77" s="310"/>
       <c r="B77" s="26"/>
       <c r="C77" s="263"/>
       <c r="D77" s="263"/>
@@ -5972,7 +5972,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="308"/>
+      <c r="A78" s="310"/>
       <c r="B78" s="26"/>
       <c r="C78" s="263"/>
       <c r="D78" s="263"/>
@@ -5983,7 +5983,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="308"/>
+      <c r="A79" s="310"/>
       <c r="B79" s="26"/>
       <c r="C79" s="263"/>
       <c r="D79" s="263"/>
@@ -5995,7 +5995,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="308"/>
+      <c r="A80" s="310"/>
       <c r="B80" s="26"/>
       <c r="C80" s="263"/>
       <c r="D80" s="263"/>
@@ -6007,7 +6007,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="308"/>
+      <c r="A81" s="310"/>
       <c r="B81" s="26"/>
       <c r="C81" s="263"/>
       <c r="D81" s="263"/>
@@ -6019,7 +6019,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="308"/>
+      <c r="A82" s="310"/>
       <c r="B82" s="26"/>
       <c r="C82" s="263"/>
       <c r="D82" s="263"/>
@@ -6031,7 +6031,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="308"/>
+      <c r="A83" s="310"/>
       <c r="B83" s="299"/>
       <c r="C83" s="264">
         <f>SUM(C5:C72)</f>
@@ -6099,67 +6099,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="315"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="316" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="317" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="317"/>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="318"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="319"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6168,52 +6168,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="309" t="s">
+      <c r="C4" s="311" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="309" t="s">
+      <c r="D4" s="311" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="309" t="s">
+      <c r="E4" s="311" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="309" t="s">
+      <c r="F4" s="311" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="309" t="s">
+      <c r="G4" s="311" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="309" t="s">
+      <c r="H4" s="311" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="309" t="s">
+      <c r="I4" s="311" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="309" t="s">
+      <c r="J4" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="309" t="s">
+      <c r="K4" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="309" t="s">
+      <c r="L4" s="311" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="309" t="s">
+      <c r="M4" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="311" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="324" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6226,22 +6226,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="319"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-      <c r="M5" s="310"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="312"/>
-      <c r="P5" s="323"/>
+      <c r="A5" s="321"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="325"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9238,6 +9238,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9254,9 +9257,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9298,14 +9298,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="330"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="332"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9399,14 +9399,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="331" t="s">
+      <c r="A2" s="333" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="333"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="335"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9500,14 +9500,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="336" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -12858,12 +12858,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="326" t="s">
+      <c r="B35" s="328" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="326"/>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="328"/>
+      <c r="E35" s="328"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -13744,10 +13744,10 @@
         <v>229</v>
       </c>
       <c r="F43" s="140"/>
-      <c r="G43" s="327"/>
-      <c r="H43" s="327"/>
-      <c r="I43" s="327"/>
-      <c r="J43" s="327"/>
+      <c r="G43" s="329"/>
+      <c r="H43" s="329"/>
+      <c r="I43" s="329"/>
+      <c r="J43" s="329"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -22369,11 +22369,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="324" t="s">
+      <c r="A119" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="325"/>
-      <c r="C119" s="337"/>
+      <c r="B119" s="327"/>
+      <c r="C119" s="339"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
         <v>2837575</v>
@@ -22576,11 +22576,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="324" t="s">
+      <c r="A121" s="326" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="325"/>
-      <c r="C121" s="325"/>
+      <c r="B121" s="327"/>
+      <c r="C121" s="327"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
         <v>2837575</v>
@@ -33817,8 +33817,8 @@
   </sheetPr>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33837,35 +33837,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="343" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="345"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="349" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="349"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="351"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="346" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="348"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33888,15 +33888,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="352" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="351"/>
+      <c r="B4" s="353"/>
       <c r="C4" s="274"/>
-      <c r="D4" s="352" t="s">
+      <c r="D4" s="354" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="353"/>
+      <c r="E4" s="355"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34362,13 +34362,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="338" t="s">
+      <c r="A19" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="339"/>
-      <c r="C19" s="339"/>
-      <c r="D19" s="339"/>
-      <c r="E19" s="340"/>
+      <c r="B19" s="341"/>
+      <c r="C19" s="341"/>
+      <c r="D19" s="341"/>
+      <c r="E19" s="342"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34797,10 +34797,10 @@
         <v>25000</v>
       </c>
       <c r="C32" s="296"/>
-      <c r="D32" s="354" t="s">
+      <c r="D32" s="305" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="355">
+      <c r="E32" s="306">
         <v>47500</v>
       </c>
       <c r="G32" s="16"/>
